--- a/Week3/ropesTestCases/RunningTime copy.xlsx
+++ b/Week3/ropesTestCases/RunningTime copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richard/Desktop/DSA/Week3/ropesTestCases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B5BC08-1B79-CF4D-AAC4-F2C71A0359AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146ED3ED-153D-9340-AF0B-11358BBF80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" xr2:uid="{CEB7F8C8-D50F-43F1-99EC-D054581DC40D}"/>
   </bookViews>
@@ -2788,7 +2788,7 @@
   <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
